--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/city-comparison/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E25EE1-1B4F-7341-92E2-FAC558C14669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B3282-1047-2D4C-81B2-361DC9D6B942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="800" windowWidth="28040" windowHeight="17440" xr2:uid="{8184E921-A763-574F-AD78-8F21E9255D5D}"/>
+    <workbookView xWindow="-30560" yWindow="940" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8184E921-A763-574F-AD78-8F21E9255D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="msaData" sheetId="4" r:id="rId1"/>
@@ -9863,7 +9863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D85807-2493-014E-8D78-97C31E5F27AE}">
   <dimension ref="A1:AB382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -40087,11 +40087,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C151B5-F657-1448-9173-FB75E161C7B6}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -75137,7 +75141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2982DFD-8C1A-B24E-8399-2AA11CF73271}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
